--- a/exe/TSV/Excel/W12_大道寺駅_UIList.xlsx
+++ b/exe/TSV/Excel/W12_大道寺駅_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockinglConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D301FE0-F28E-4634-8176-357CA9AD36E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911EB91C-BB30-4849-9145-14A7DC6F16C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="4440" windowWidth="24300" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6645" yWindow="4740" windowWidth="24300" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W12_大道寺駅_UIList" sheetId="1" r:id="rId1"/>
@@ -2185,10 +2185,10 @@
   <dimension ref="A1:AE380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R278" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T303" sqref="T303:T306"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5466,7 +5466,7 @@
         <v>37</v>
       </c>
       <c r="T64" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U64" s="7"/>
       <c r="V64" s="8" t="s">
@@ -5515,7 +5515,7 @@
         <v>37</v>
       </c>
       <c r="T65" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U65" s="7"/>
       <c r="V65" s="8" t="s">
@@ -5562,7 +5562,7 @@
         <v>37</v>
       </c>
       <c r="T66" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U66" s="7"/>
       <c r="V66" s="8" t="s">
@@ -5609,7 +5609,7 @@
         <v>37</v>
       </c>
       <c r="T67" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U67" s="7"/>
       <c r="V67" s="8" t="s">
@@ -5656,7 +5656,7 @@
         <v>37</v>
       </c>
       <c r="T68" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U68" s="7"/>
       <c r="V68" s="8" t="s">
@@ -5703,7 +5703,7 @@
         <v>37</v>
       </c>
       <c r="T69" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U69" s="7"/>
       <c r="V69" s="8" t="s">
@@ -5750,7 +5750,7 @@
         <v>37</v>
       </c>
       <c r="T70" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U70" s="7"/>
       <c r="V70" s="8" t="s">
@@ -5797,7 +5797,7 @@
         <v>37</v>
       </c>
       <c r="T71" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U71" s="7"/>
       <c r="V71" s="8" t="s">
@@ -5844,7 +5844,7 @@
         <v>37</v>
       </c>
       <c r="T72" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U72" s="7"/>
       <c r="V72" s="8" t="s">
@@ -5891,7 +5891,7 @@
         <v>37</v>
       </c>
       <c r="T73" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U73" s="7"/>
       <c r="V73" s="8" t="s">
@@ -5938,7 +5938,7 @@
         <v>37</v>
       </c>
       <c r="T74" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U74" s="7"/>
       <c r="V74" s="8" t="s">
@@ -5985,7 +5985,7 @@
         <v>37</v>
       </c>
       <c r="T75" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U75" s="7"/>
       <c r="V75" s="8" t="s">
@@ -6032,7 +6032,7 @@
         <v>37</v>
       </c>
       <c r="T76" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U76" s="7"/>
       <c r="V76" s="8" t="s">
@@ -6079,7 +6079,7 @@
         <v>37</v>
       </c>
       <c r="T77" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U77" s="7"/>
       <c r="V77" s="8" t="s">
@@ -6126,7 +6126,7 @@
         <v>37</v>
       </c>
       <c r="T78" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U78" s="7"/>
       <c r="V78" s="8" t="s">
@@ -6173,7 +6173,7 @@
         <v>37</v>
       </c>
       <c r="T79" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U79" s="7"/>
       <c r="V79" s="8" t="s">
@@ -6220,7 +6220,7 @@
         <v>37</v>
       </c>
       <c r="T80" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U80" s="7"/>
       <c r="V80" s="8" t="s">
@@ -6267,7 +6267,7 @@
         <v>37</v>
       </c>
       <c r="T81" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U81" s="7"/>
       <c r="V81" s="8" t="s">
@@ -6314,7 +6314,7 @@
         <v>37</v>
       </c>
       <c r="T82" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U82" s="7"/>
       <c r="V82" s="8" t="s">
@@ -6361,7 +6361,7 @@
         <v>37</v>
       </c>
       <c r="T83" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U83" s="7"/>
       <c r="V83" s="8" t="s">
@@ -6408,7 +6408,7 @@
         <v>37</v>
       </c>
       <c r="T84" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U84" s="7"/>
       <c r="V84" s="8" t="s">
@@ -6455,7 +6455,7 @@
         <v>37</v>
       </c>
       <c r="T85" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U85" s="7"/>
       <c r="V85" s="8" t="s">
@@ -6502,7 +6502,7 @@
         <v>37</v>
       </c>
       <c r="T86" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U86" s="7"/>
       <c r="V86" s="8" t="s">
@@ -6549,7 +6549,7 @@
         <v>37</v>
       </c>
       <c r="T87" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U87" s="7"/>
       <c r="V87" s="8" t="s">
@@ -6596,7 +6596,7 @@
         <v>37</v>
       </c>
       <c r="T88" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U88" s="7"/>
       <c r="V88" s="8" t="s">
@@ -6643,7 +6643,7 @@
         <v>37</v>
       </c>
       <c r="T89" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U89" s="7"/>
       <c r="V89" s="8" t="s">
@@ -6690,7 +6690,7 @@
         <v>37</v>
       </c>
       <c r="T90" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U90" s="7"/>
       <c r="V90" s="8" t="s">
@@ -6737,7 +6737,7 @@
         <v>37</v>
       </c>
       <c r="T91" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U91" s="7"/>
       <c r="V91" s="8" t="s">
@@ -6784,7 +6784,7 @@
         <v>37</v>
       </c>
       <c r="T92" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U92" s="7"/>
       <c r="V92" s="8" t="s">
@@ -6831,7 +6831,7 @@
         <v>37</v>
       </c>
       <c r="T93" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U93" s="7"/>
       <c r="V93" s="8" t="s">
@@ -6878,7 +6878,7 @@
         <v>37</v>
       </c>
       <c r="T94" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U94" s="7"/>
       <c r="V94" s="8" t="s">
@@ -6925,7 +6925,7 @@
         <v>37</v>
       </c>
       <c r="T95" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U95" s="7"/>
       <c r="V95" s="8" t="s">
@@ -6972,7 +6972,7 @@
         <v>37</v>
       </c>
       <c r="T96" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U96" s="7"/>
       <c r="V96" s="8" t="s">
@@ -7019,7 +7019,7 @@
         <v>37</v>
       </c>
       <c r="T97" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U97" s="7"/>
       <c r="V97" s="8" t="s">
@@ -7066,7 +7066,7 @@
         <v>37</v>
       </c>
       <c r="T98" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U98" s="7"/>
       <c r="V98" s="8" t="s">
@@ -7113,7 +7113,7 @@
         <v>37</v>
       </c>
       <c r="T99" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U99" s="7"/>
       <c r="V99" s="8" t="s">
@@ -7160,7 +7160,7 @@
         <v>37</v>
       </c>
       <c r="T100" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U100" s="7"/>
       <c r="V100" s="8" t="s">
@@ -7207,7 +7207,7 @@
         <v>37</v>
       </c>
       <c r="T101" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U101" s="7"/>
       <c r="V101" s="8" t="s">
@@ -7254,7 +7254,7 @@
         <v>37</v>
       </c>
       <c r="T102" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U102" s="7"/>
       <c r="V102" s="8" t="s">
@@ -7301,7 +7301,7 @@
         <v>37</v>
       </c>
       <c r="T103" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U103" s="7"/>
       <c r="V103" s="8" t="s">
@@ -7348,7 +7348,7 @@
         <v>37</v>
       </c>
       <c r="T104" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U104" s="7"/>
       <c r="V104" s="8" t="s">
@@ -7395,7 +7395,7 @@
         <v>37</v>
       </c>
       <c r="T105" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U105" s="7"/>
       <c r="V105" s="8" t="s">
@@ -7442,7 +7442,7 @@
         <v>37</v>
       </c>
       <c r="T106" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U106" s="7"/>
       <c r="V106" s="8" t="s">
@@ -7542,7 +7542,7 @@
         <v>37</v>
       </c>
       <c r="T108" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U108" s="7"/>
       <c r="V108" s="8" t="s">
@@ -7589,7 +7589,7 @@
         <v>37</v>
       </c>
       <c r="T109" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U109" s="7"/>
       <c r="V109" s="8" t="s">
@@ -7687,7 +7687,7 @@
         <v>37</v>
       </c>
       <c r="T111" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U111" s="7"/>
       <c r="V111" s="8" t="s">
@@ -7734,7 +7734,7 @@
         <v>37</v>
       </c>
       <c r="T112" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U112" s="7"/>
       <c r="V112" s="8" t="s">
@@ -7832,7 +7832,7 @@
         <v>37</v>
       </c>
       <c r="T114" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U114" s="7"/>
       <c r="V114" s="8" t="s">
@@ -7879,7 +7879,7 @@
         <v>37</v>
       </c>
       <c r="T115" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U115" s="7"/>
       <c r="V115" s="8" t="s">
@@ -7977,7 +7977,7 @@
         <v>37</v>
       </c>
       <c r="T117" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U117" s="7"/>
       <c r="V117" s="8" t="s">
@@ -8024,7 +8024,7 @@
         <v>37</v>
       </c>
       <c r="T118" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U118" s="7"/>
       <c r="V118" s="8" t="s">
@@ -8122,7 +8122,7 @@
         <v>37</v>
       </c>
       <c r="T120" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U120" s="7"/>
       <c r="V120" s="8" t="s">
@@ -8169,7 +8169,7 @@
         <v>37</v>
       </c>
       <c r="T121" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U121" s="7"/>
       <c r="V121" s="8" t="s">
@@ -8267,7 +8267,7 @@
         <v>37</v>
       </c>
       <c r="T123" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U123" s="7"/>
       <c r="V123" s="8" t="s">
@@ -8314,7 +8314,7 @@
         <v>37</v>
       </c>
       <c r="T124" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U124" s="7"/>
       <c r="V124" s="8" t="s">
@@ -8412,7 +8412,7 @@
         <v>37</v>
       </c>
       <c r="T126" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U126" s="7"/>
       <c r="V126" s="8" t="s">
@@ -8459,7 +8459,7 @@
         <v>37</v>
       </c>
       <c r="T127" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U127" s="7"/>
       <c r="V127" s="8" t="s">
@@ -8557,7 +8557,7 @@
         <v>37</v>
       </c>
       <c r="T129" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U129" s="7"/>
       <c r="V129" s="8" t="s">
@@ -8604,7 +8604,7 @@
         <v>37</v>
       </c>
       <c r="T130" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U130" s="7"/>
       <c r="V130" s="8" t="s">
@@ -8702,7 +8702,7 @@
         <v>37</v>
       </c>
       <c r="T132" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U132" s="7"/>
       <c r="V132" s="8" t="s">
@@ -8749,7 +8749,7 @@
         <v>37</v>
       </c>
       <c r="T133" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U133" s="7"/>
       <c r="V133" s="8" t="s">
@@ -8847,7 +8847,7 @@
         <v>37</v>
       </c>
       <c r="T135" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U135" s="7"/>
       <c r="V135" s="8" t="s">
@@ -8894,7 +8894,7 @@
         <v>37</v>
       </c>
       <c r="T136" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U136" s="7"/>
       <c r="V136" s="8" t="s">
@@ -9047,7 +9047,7 @@
         <v>37</v>
       </c>
       <c r="T139" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U139" s="7"/>
       <c r="V139" s="8" t="s">
@@ -9094,7 +9094,7 @@
         <v>37</v>
       </c>
       <c r="T140" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U140" s="7"/>
       <c r="V140" s="8" t="s">
@@ -9141,7 +9141,7 @@
         <v>37</v>
       </c>
       <c r="T141" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U141" s="7"/>
       <c r="V141" s="8" t="s">
@@ -9188,7 +9188,7 @@
         <v>208</v>
       </c>
       <c r="T142" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U142" s="12"/>
       <c r="V142" s="13" t="s">
@@ -9237,7 +9237,7 @@
         <v>208</v>
       </c>
       <c r="T143" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U143" s="12"/>
       <c r="V143" s="13" t="s">
@@ -9284,7 +9284,7 @@
         <v>208</v>
       </c>
       <c r="T144" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U144" s="12"/>
       <c r="V144" s="13" t="s">
@@ -9331,7 +9331,7 @@
         <v>208</v>
       </c>
       <c r="T145" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U145" s="12"/>
       <c r="V145" s="13" t="s">
@@ -9378,7 +9378,7 @@
         <v>208</v>
       </c>
       <c r="T146" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U146" s="12"/>
       <c r="V146" s="13" t="s">
@@ -9425,7 +9425,7 @@
         <v>208</v>
       </c>
       <c r="T147" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U147" s="12"/>
       <c r="V147" s="13" t="s">
@@ -9472,7 +9472,7 @@
         <v>208</v>
       </c>
       <c r="T148" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U148" s="12"/>
       <c r="V148" s="13" t="s">
@@ -9519,7 +9519,7 @@
         <v>208</v>
       </c>
       <c r="T149" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U149" s="12"/>
       <c r="V149" s="13" t="s">
@@ -9566,7 +9566,7 @@
         <v>208</v>
       </c>
       <c r="T150" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U150" s="12"/>
       <c r="V150" s="13" t="s">
@@ -9615,7 +9615,7 @@
         <v>208</v>
       </c>
       <c r="T151" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U151" s="12"/>
       <c r="V151" s="13" t="s">
@@ -9664,7 +9664,7 @@
         <v>208</v>
       </c>
       <c r="T152" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U152" s="12"/>
       <c r="V152" s="13" t="s">
@@ -9711,7 +9711,7 @@
         <v>208</v>
       </c>
       <c r="T153" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U153" s="12"/>
       <c r="V153" s="13" t="s">
@@ -9758,7 +9758,7 @@
         <v>208</v>
       </c>
       <c r="T154" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U154" s="12"/>
       <c r="V154" s="13" t="s">
@@ -9805,7 +9805,7 @@
         <v>208</v>
       </c>
       <c r="T155" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U155" s="12"/>
       <c r="V155" s="13" t="s">
@@ -9852,7 +9852,7 @@
         <v>208</v>
       </c>
       <c r="T156" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U156" s="12"/>
       <c r="V156" s="13" t="s">
@@ -9899,7 +9899,7 @@
         <v>208</v>
       </c>
       <c r="T157" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U157" s="12"/>
       <c r="V157" s="13" t="s">
@@ -9946,7 +9946,7 @@
         <v>208</v>
       </c>
       <c r="T158" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U158" s="12"/>
       <c r="V158" s="13" t="s">
@@ -9993,7 +9993,7 @@
         <v>208</v>
       </c>
       <c r="T159" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U159" s="12"/>
       <c r="V159" s="13" t="s">
@@ -10040,7 +10040,7 @@
         <v>208</v>
       </c>
       <c r="T160" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U160" s="12"/>
       <c r="V160" s="13" t="s">
@@ -10089,7 +10089,7 @@
         <v>208</v>
       </c>
       <c r="T161" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U161" s="12"/>
       <c r="V161" s="13" t="s">
@@ -10138,7 +10138,7 @@
         <v>208</v>
       </c>
       <c r="T162" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U162" s="12"/>
       <c r="V162" s="13" t="s">
@@ -10185,7 +10185,7 @@
         <v>208</v>
       </c>
       <c r="T163" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U163" s="12"/>
       <c r="V163" s="13" t="s">
@@ -10232,7 +10232,7 @@
         <v>208</v>
       </c>
       <c r="T164" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U164" s="12"/>
       <c r="V164" s="13" t="s">
@@ -10279,7 +10279,7 @@
         <v>208</v>
       </c>
       <c r="T165" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U165" s="12"/>
       <c r="V165" s="13" t="s">
@@ -10326,7 +10326,7 @@
         <v>208</v>
       </c>
       <c r="T166" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U166" s="12"/>
       <c r="V166" s="13" t="s">
@@ -10373,7 +10373,7 @@
         <v>208</v>
       </c>
       <c r="T167" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U167" s="12"/>
       <c r="V167" s="13" t="s">
@@ -10420,7 +10420,7 @@
         <v>208</v>
       </c>
       <c r="T168" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U168" s="12"/>
       <c r="V168" s="13" t="s">
@@ -10467,7 +10467,7 @@
         <v>208</v>
       </c>
       <c r="T169" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U169" s="12"/>
       <c r="V169" s="13" t="s">
@@ -10514,7 +10514,7 @@
         <v>208</v>
       </c>
       <c r="T170" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U170" s="12"/>
       <c r="V170" s="13" t="s">
@@ -10563,7 +10563,7 @@
         <v>208</v>
       </c>
       <c r="T171" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U171" s="12"/>
       <c r="V171" s="13" t="s">
@@ -10610,7 +10610,7 @@
         <v>208</v>
       </c>
       <c r="T172" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U172" s="12"/>
       <c r="V172" s="13" t="s">
@@ -10657,7 +10657,7 @@
         <v>208</v>
       </c>
       <c r="T173" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U173" s="12"/>
       <c r="V173" s="13" t="s">
@@ -10706,7 +10706,7 @@
         <v>208</v>
       </c>
       <c r="T174" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U174" s="12"/>
       <c r="V174" s="13" t="s">
@@ -10753,7 +10753,7 @@
         <v>208</v>
       </c>
       <c r="T175" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U175" s="12"/>
       <c r="V175" s="13" t="s">
@@ -10800,7 +10800,7 @@
         <v>208</v>
       </c>
       <c r="T176" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U176" s="12"/>
       <c r="V176" s="13" t="s">
@@ -10847,7 +10847,7 @@
         <v>208</v>
       </c>
       <c r="T177" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U177" s="12"/>
       <c r="V177" s="13" t="s">
@@ -10894,7 +10894,7 @@
         <v>208</v>
       </c>
       <c r="T178" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U178" s="12"/>
       <c r="V178" s="13" t="s">
@@ -10941,7 +10941,7 @@
         <v>208</v>
       </c>
       <c r="T179" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U179" s="12"/>
       <c r="V179" s="13" t="s">
@@ -10988,7 +10988,7 @@
         <v>208</v>
       </c>
       <c r="T180" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U180" s="12"/>
       <c r="V180" s="13" t="s">
@@ -11035,7 +11035,7 @@
         <v>208</v>
       </c>
       <c r="T181" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U181" s="12"/>
       <c r="V181" s="13" t="s">
@@ -11082,7 +11082,7 @@
         <v>208</v>
       </c>
       <c r="T182" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U182" s="12"/>
       <c r="V182" s="13" t="s">
@@ -11129,7 +11129,7 @@
         <v>208</v>
       </c>
       <c r="T183" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U183" s="12"/>
       <c r="V183" s="13" t="s">
@@ -11176,7 +11176,7 @@
         <v>208</v>
       </c>
       <c r="T184" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U184" s="12"/>
       <c r="V184" s="13" t="s">
@@ -11223,7 +11223,7 @@
         <v>208</v>
       </c>
       <c r="T185" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U185" s="12"/>
       <c r="V185" s="13" t="s">
@@ -11272,7 +11272,7 @@
         <v>208</v>
       </c>
       <c r="T186" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U186" s="12"/>
       <c r="V186" s="13" t="s">
@@ -11319,7 +11319,7 @@
         <v>208</v>
       </c>
       <c r="T187" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U187" s="12"/>
       <c r="V187" s="13" t="s">
@@ -11366,7 +11366,7 @@
         <v>208</v>
       </c>
       <c r="T188" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U188" s="12"/>
       <c r="V188" s="13" t="s">
@@ -11413,7 +11413,7 @@
         <v>208</v>
       </c>
       <c r="T189" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U189" s="12"/>
       <c r="V189" s="13" t="s">
@@ -11460,7 +11460,7 @@
         <v>208</v>
       </c>
       <c r="T190" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U190" s="12"/>
       <c r="V190" s="13" t="s">
@@ -11507,7 +11507,7 @@
         <v>208</v>
       </c>
       <c r="T191" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U191" s="12"/>
       <c r="V191" s="13" t="s">
@@ -11554,7 +11554,7 @@
         <v>208</v>
       </c>
       <c r="T192" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U192" s="12"/>
       <c r="V192" s="13" t="s">
@@ -11603,7 +11603,7 @@
         <v>208</v>
       </c>
       <c r="T193" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U193" s="12"/>
       <c r="V193" s="13" t="s">
@@ -11650,7 +11650,7 @@
         <v>208</v>
       </c>
       <c r="T194" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U194" s="12"/>
       <c r="V194" s="13" t="s">
@@ -11697,7 +11697,7 @@
         <v>208</v>
       </c>
       <c r="T195" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U195" s="12"/>
       <c r="V195" s="13" t="s">
@@ -11746,7 +11746,7 @@
         <v>208</v>
       </c>
       <c r="T196" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U196" s="12"/>
       <c r="V196" s="13" t="s">
@@ -11793,7 +11793,7 @@
         <v>208</v>
       </c>
       <c r="T197" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U197" s="12"/>
       <c r="V197" s="13" t="s">
@@ -11840,7 +11840,7 @@
         <v>208</v>
       </c>
       <c r="T198" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U198" s="12"/>
       <c r="V198" s="13" t="s">
@@ -11887,7 +11887,7 @@
         <v>208</v>
       </c>
       <c r="T199" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U199" s="12"/>
       <c r="V199" s="13" t="s">
@@ -11934,7 +11934,7 @@
         <v>208</v>
       </c>
       <c r="T200" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U200" s="12"/>
       <c r="V200" s="13" t="s">
@@ -11981,7 +11981,7 @@
         <v>208</v>
       </c>
       <c r="T201" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U201" s="12"/>
       <c r="V201" s="13" t="s">
@@ -12028,7 +12028,7 @@
         <v>208</v>
       </c>
       <c r="T202" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U202" s="12"/>
       <c r="V202" s="13" t="s">
@@ -12075,7 +12075,7 @@
         <v>208</v>
       </c>
       <c r="T203" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U203" s="12"/>
       <c r="V203" s="13" t="s">
@@ -12124,7 +12124,7 @@
         <v>208</v>
       </c>
       <c r="T204" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U204" s="12"/>
       <c r="V204" s="13" t="s">
@@ -12173,7 +12173,7 @@
         <v>208</v>
       </c>
       <c r="T205" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U205" s="12"/>
       <c r="V205" s="13" t="s">
@@ -12222,7 +12222,7 @@
         <v>208</v>
       </c>
       <c r="T206" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U206" s="12"/>
       <c r="V206" s="13" t="s">
@@ -12271,7 +12271,7 @@
         <v>208</v>
       </c>
       <c r="T207" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U207" s="12"/>
       <c r="V207" s="13" t="s">
@@ -12318,7 +12318,7 @@
         <v>208</v>
       </c>
       <c r="T208" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U208" s="12"/>
       <c r="V208" s="13" t="s">
@@ -12365,7 +12365,7 @@
         <v>208</v>
       </c>
       <c r="T209" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U209" s="12"/>
       <c r="V209" s="13" t="s">
@@ -12412,7 +12412,7 @@
         <v>208</v>
       </c>
       <c r="T210" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U210" s="12"/>
       <c r="V210" s="13" t="s">
@@ -12459,7 +12459,7 @@
         <v>208</v>
       </c>
       <c r="T211" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U211" s="12"/>
       <c r="V211" s="13" t="s">
@@ -12508,7 +12508,7 @@
         <v>208</v>
       </c>
       <c r="T212" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U212" s="12"/>
       <c r="V212" s="13" t="s">
@@ -12555,7 +12555,7 @@
         <v>208</v>
       </c>
       <c r="T213" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U213" s="12"/>
       <c r="V213" s="13" t="s">
@@ -12602,7 +12602,7 @@
         <v>208</v>
       </c>
       <c r="T214" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U214" s="12"/>
       <c r="V214" s="13" t="s">
@@ -12649,7 +12649,7 @@
         <v>208</v>
       </c>
       <c r="T215" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U215" s="12"/>
       <c r="V215" s="13" t="s">
@@ -12696,7 +12696,7 @@
         <v>208</v>
       </c>
       <c r="T216" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U216" s="12"/>
       <c r="V216" s="13" t="s">
@@ -12743,7 +12743,7 @@
         <v>208</v>
       </c>
       <c r="T217" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U217" s="12"/>
       <c r="V217" s="13" t="s">
@@ -12790,7 +12790,7 @@
         <v>208</v>
       </c>
       <c r="T218" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U218" s="12"/>
       <c r="V218" s="13" t="s">
@@ -12837,7 +12837,7 @@
         <v>208</v>
       </c>
       <c r="T219" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U219" s="12"/>
       <c r="V219" s="13" t="s">
@@ -12884,7 +12884,7 @@
         <v>208</v>
       </c>
       <c r="T220" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U220" s="12"/>
       <c r="V220" s="13" t="s">
@@ -12931,7 +12931,7 @@
         <v>208</v>
       </c>
       <c r="T221" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U221" s="12"/>
       <c r="V221" s="13" t="s">
@@ -12978,7 +12978,7 @@
         <v>208</v>
       </c>
       <c r="T222" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U222" s="12"/>
       <c r="V222" s="13" t="s">
@@ -13027,7 +13027,7 @@
         <v>208</v>
       </c>
       <c r="T223" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U223" s="12"/>
       <c r="V223" s="13" t="s">
@@ -13074,7 +13074,7 @@
         <v>208</v>
       </c>
       <c r="T224" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U224" s="12"/>
       <c r="V224" s="13" t="s">
@@ -13121,7 +13121,7 @@
         <v>208</v>
       </c>
       <c r="T225" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U225" s="12"/>
       <c r="V225" s="13" t="s">
@@ -13168,7 +13168,7 @@
         <v>208</v>
       </c>
       <c r="T226" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U226" s="12"/>
       <c r="V226" s="13" t="s">
@@ -13215,7 +13215,7 @@
         <v>208</v>
       </c>
       <c r="T227" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U227" s="12"/>
       <c r="V227" s="13" t="s">
@@ -13264,7 +13264,7 @@
         <v>208</v>
       </c>
       <c r="T228" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U228" s="12"/>
       <c r="V228" s="13" t="s">
@@ -13313,7 +13313,7 @@
         <v>208</v>
       </c>
       <c r="T229" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U229" s="12"/>
       <c r="V229" s="13" t="s">
@@ -13362,7 +13362,7 @@
         <v>208</v>
       </c>
       <c r="T230" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U230" s="12"/>
       <c r="V230" s="13" t="s">
@@ -13411,7 +13411,7 @@
         <v>208</v>
       </c>
       <c r="T231" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U231" s="12"/>
       <c r="V231" s="13" t="s">
@@ -13460,7 +13460,7 @@
         <v>208</v>
       </c>
       <c r="T232" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U232" s="12"/>
       <c r="V232" s="13" t="s">
@@ -13509,7 +13509,7 @@
         <v>208</v>
       </c>
       <c r="T233" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U233" s="12"/>
       <c r="V233" s="13" t="s">
@@ -13558,7 +13558,7 @@
         <v>208</v>
       </c>
       <c r="T234" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U234" s="12"/>
       <c r="V234" s="13" t="s">
@@ -13607,7 +13607,7 @@
         <v>208</v>
       </c>
       <c r="T235" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U235" s="12"/>
       <c r="V235" s="13" t="s">
@@ -13656,7 +13656,7 @@
         <v>208</v>
       </c>
       <c r="T236" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U236" s="12"/>
       <c r="V236" s="13" t="s">
@@ -13705,7 +13705,7 @@
         <v>208</v>
       </c>
       <c r="T237" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U237" s="12"/>
       <c r="V237" s="13" t="s">
@@ -13754,7 +13754,7 @@
         <v>208</v>
       </c>
       <c r="T238" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U238" s="12"/>
       <c r="V238" s="13" t="s">
@@ -13803,7 +13803,7 @@
         <v>208</v>
       </c>
       <c r="T239" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U239" s="12"/>
       <c r="V239" s="13" t="s">
@@ -13852,7 +13852,7 @@
         <v>208</v>
       </c>
       <c r="T240" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U240" s="12"/>
       <c r="V240" s="13" t="s">
@@ -13901,7 +13901,7 @@
         <v>208</v>
       </c>
       <c r="T241" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U241" s="12"/>
       <c r="V241" s="13" t="s">
@@ -13950,7 +13950,7 @@
         <v>208</v>
       </c>
       <c r="T242" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U242" s="12"/>
       <c r="V242" s="13" t="s">
@@ -13999,7 +13999,7 @@
         <v>208</v>
       </c>
       <c r="T243" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U243" s="12"/>
       <c r="V243" s="13" t="s">
@@ -14046,7 +14046,7 @@
         <v>208</v>
       </c>
       <c r="T244" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U244" s="12"/>
       <c r="V244" s="13" t="s">
@@ -14095,7 +14095,7 @@
         <v>208</v>
       </c>
       <c r="T245" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U245" s="12"/>
       <c r="V245" s="13" t="s">
@@ -14144,7 +14144,7 @@
         <v>208</v>
       </c>
       <c r="T246" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U246" s="12"/>
       <c r="V246" s="13" t="s">
@@ -14191,7 +14191,7 @@
         <v>208</v>
       </c>
       <c r="T247" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U247" s="12"/>
       <c r="V247" s="13" t="s">
@@ -14238,7 +14238,7 @@
         <v>208</v>
       </c>
       <c r="T248" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U248" s="12"/>
       <c r="V248" s="13" t="s">
@@ -14285,7 +14285,7 @@
         <v>208</v>
       </c>
       <c r="T249" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U249" s="12"/>
       <c r="V249" s="13" t="s">
@@ -14334,7 +14334,7 @@
         <v>208</v>
       </c>
       <c r="T250" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U250" s="12"/>
       <c r="V250" s="13" t="s">
@@ -14381,7 +14381,7 @@
         <v>208</v>
       </c>
       <c r="T251" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U251" s="12"/>
       <c r="V251" s="13" t="s">
@@ -14430,7 +14430,7 @@
         <v>208</v>
       </c>
       <c r="T252" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U252" s="12"/>
       <c r="V252" s="13" t="s">
@@ -14479,7 +14479,7 @@
         <v>208</v>
       </c>
       <c r="T253" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U253" s="12"/>
       <c r="V253" s="13" t="s">
@@ -14526,7 +14526,7 @@
         <v>208</v>
       </c>
       <c r="T254" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U254" s="12"/>
       <c r="V254" s="13" t="s">
@@ -14573,7 +14573,7 @@
         <v>208</v>
       </c>
       <c r="T255" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U255" s="12"/>
       <c r="V255" s="13" t="s">
@@ -14622,7 +14622,7 @@
         <v>208</v>
       </c>
       <c r="T256" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U256" s="12"/>
       <c r="V256" s="13" t="s">
@@ -14671,7 +14671,7 @@
         <v>208</v>
       </c>
       <c r="T257" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U257" s="12"/>
       <c r="V257" s="13" t="s">
@@ -14718,7 +14718,7 @@
         <v>208</v>
       </c>
       <c r="T258" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U258" s="12"/>
       <c r="V258" s="13" t="s">
@@ -14765,7 +14765,7 @@
         <v>208</v>
       </c>
       <c r="T259" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U259" s="12"/>
       <c r="V259" s="13" t="s">
@@ -14814,7 +14814,7 @@
         <v>208</v>
       </c>
       <c r="T260" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U260" s="12"/>
       <c r="V260" s="13" t="s">
@@ -14863,7 +14863,7 @@
         <v>208</v>
       </c>
       <c r="T261" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U261" s="12"/>
       <c r="V261" s="13" t="s">
@@ -14910,7 +14910,7 @@
         <v>208</v>
       </c>
       <c r="T262" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U262" s="12"/>
       <c r="V262" s="13" t="s">
@@ -14957,7 +14957,7 @@
         <v>208</v>
       </c>
       <c r="T263" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U263" s="12"/>
       <c r="V263" s="13" t="s">
@@ -15004,7 +15004,7 @@
         <v>208</v>
       </c>
       <c r="T264" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U264" s="12"/>
       <c r="V264" s="13" t="s">
@@ -15051,7 +15051,7 @@
         <v>208</v>
       </c>
       <c r="T265" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U265" s="12"/>
       <c r="V265" s="13" t="s">
@@ -15100,7 +15100,7 @@
         <v>208</v>
       </c>
       <c r="T266" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U266" s="12"/>
       <c r="V266" s="13" t="s">
@@ -15149,7 +15149,7 @@
         <v>208</v>
       </c>
       <c r="T267" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U267" s="12"/>
       <c r="V267" s="13" t="s">
@@ -15196,7 +15196,7 @@
         <v>208</v>
       </c>
       <c r="T268" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U268" s="12"/>
       <c r="V268" s="13" t="s">
@@ -15245,7 +15245,7 @@
         <v>208</v>
       </c>
       <c r="T269" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U269" s="12"/>
       <c r="V269" s="13" t="s">
@@ -15292,7 +15292,7 @@
         <v>208</v>
       </c>
       <c r="T270" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U270" s="12"/>
       <c r="V270" s="13" t="s">
@@ -15341,7 +15341,7 @@
         <v>208</v>
       </c>
       <c r="T271" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U271" s="12"/>
       <c r="V271" s="13" t="s">
@@ -15390,7 +15390,7 @@
         <v>208</v>
       </c>
       <c r="T272" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U272" s="12"/>
       <c r="V272" s="13" t="s">
@@ -15437,7 +15437,7 @@
         <v>208</v>
       </c>
       <c r="T273" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U273" s="12"/>
       <c r="V273" s="13" t="s">
@@ -15484,7 +15484,7 @@
         <v>208</v>
       </c>
       <c r="T274" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U274" s="12"/>
       <c r="V274" s="13" t="s">
@@ -15533,7 +15533,7 @@
         <v>208</v>
       </c>
       <c r="T275" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U275" s="12"/>
       <c r="V275" s="13" t="s">
@@ -15580,7 +15580,7 @@
         <v>208</v>
       </c>
       <c r="T276" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U276" s="12"/>
       <c r="V276" s="13" t="s">
@@ -15627,7 +15627,7 @@
         <v>208</v>
       </c>
       <c r="T277" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U277" s="12"/>
       <c r="V277" s="13" t="s">
@@ -15674,7 +15674,7 @@
         <v>208</v>
       </c>
       <c r="T278" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U278" s="12"/>
       <c r="V278" s="13" t="s">
@@ -15723,7 +15723,7 @@
         <v>208</v>
       </c>
       <c r="T279" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U279" s="12"/>
       <c r="V279" s="13" t="s">
@@ -15770,7 +15770,7 @@
         <v>208</v>
       </c>
       <c r="T280" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U280" s="12"/>
       <c r="V280" s="13" t="s">
@@ -15817,7 +15817,7 @@
         <v>208</v>
       </c>
       <c r="T281" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U281" s="12"/>
       <c r="V281" s="13" t="s">
@@ -15864,7 +15864,7 @@
         <v>208</v>
       </c>
       <c r="T282" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U282" s="12"/>
       <c r="V282" s="13" t="s">
@@ -16787,7 +16787,7 @@
         <v>37</v>
       </c>
       <c r="T303" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U303" s="12"/>
       <c r="V303" s="13" t="s">
@@ -16836,7 +16836,7 @@
         <v>37</v>
       </c>
       <c r="T304" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U304" s="12"/>
       <c r="V304" s="13" t="s">
@@ -16883,7 +16883,7 @@
         <v>37</v>
       </c>
       <c r="T305" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U305" s="12"/>
       <c r="V305" s="13" t="s">
@@ -16930,7 +16930,7 @@
         <v>37</v>
       </c>
       <c r="T306" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U306" s="12"/>
       <c r="V306" s="13" t="s">

--- a/exe/TSV/Excel/W12_大道寺駅_UIList.xlsx
+++ b/exe/TSV/Excel/W12_大道寺駅_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockinglConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911EB91C-BB30-4849-9145-14A7DC6F16C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93B8639-9F0F-40B4-8858-2094CA5B7E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="4740" windowWidth="24300" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6615" yWindow="4785" windowWidth="24300" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W12_大道寺駅_UIList" sheetId="1" r:id="rId1"/>
@@ -697,16 +697,16 @@
     <t>30RZ</t>
   </si>
   <si>
-    <t>31R</t>
-  </si>
-  <si>
-    <t>31RZ</t>
-  </si>
-  <si>
-    <t>32R</t>
-  </si>
-  <si>
-    <t>32RZ</t>
+    <t>31L</t>
+  </si>
+  <si>
+    <t>31LZ</t>
+  </si>
+  <si>
+    <t>32L</t>
+  </si>
+  <si>
+    <t>32LZ</t>
   </si>
   <si>
     <t>ButtonImage</t>
@@ -1762,19 +1762,19 @@
     <t>30Z</t>
   </si>
   <si>
-    <t>Label_31R</t>
-  </si>
-  <si>
-    <t>Label_31RZ</t>
+    <t>Label_31L</t>
+  </si>
+  <si>
+    <t>Label_31LZ</t>
   </si>
   <si>
     <t>31Z</t>
   </si>
   <si>
-    <t>Label_32R</t>
-  </si>
-  <si>
-    <t>Label_32RZ</t>
+    <t>Label_32L</t>
+  </si>
+  <si>
+    <t>Label_32LZ</t>
   </si>
   <si>
     <t>32Z</t>
@@ -1876,17 +1876,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -4496,16 +4499,16 @@
         <v>95</v>
       </c>
       <c r="S45" s="6" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="T45" s="6">
         <v>0</v>
       </c>
       <c r="U45" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="V45" s="8" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
@@ -4547,16 +4550,16 @@
         <v>96</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="T46" s="6">
         <v>0</v>
       </c>
       <c r="U46" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="V46" s="8" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
@@ -4598,16 +4601,16 @@
         <v>97</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="T47" s="6">
         <v>0</v>
       </c>
       <c r="U47" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="V47" s="8" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
@@ -4649,16 +4652,16 @@
         <v>98</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="T48" s="6">
         <v>0</v>
       </c>
       <c r="U48" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="V48" s="8" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
@@ -9187,7 +9190,7 @@
       <c r="S142" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T142" s="6">
+      <c r="T142" s="11">
         <v>0</v>
       </c>
       <c r="U142" s="12"/>
@@ -9236,7 +9239,7 @@
       <c r="S143" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T143" s="6">
+      <c r="T143" s="11">
         <v>0</v>
       </c>
       <c r="U143" s="12"/>
@@ -9283,7 +9286,7 @@
       <c r="S144" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T144" s="6">
+      <c r="T144" s="11">
         <v>0</v>
       </c>
       <c r="U144" s="12"/>
@@ -9330,7 +9333,7 @@
       <c r="S145" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T145" s="6">
+      <c r="T145" s="11">
         <v>0</v>
       </c>
       <c r="U145" s="12"/>
@@ -9377,7 +9380,7 @@
       <c r="S146" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T146" s="6">
+      <c r="T146" s="11">
         <v>0</v>
       </c>
       <c r="U146" s="12"/>
@@ -9424,7 +9427,7 @@
       <c r="S147" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T147" s="6">
+      <c r="T147" s="11">
         <v>0</v>
       </c>
       <c r="U147" s="12"/>
@@ -9471,7 +9474,7 @@
       <c r="S148" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T148" s="6">
+      <c r="T148" s="11">
         <v>0</v>
       </c>
       <c r="U148" s="12"/>
@@ -9518,7 +9521,7 @@
       <c r="S149" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T149" s="6">
+      <c r="T149" s="11">
         <v>0</v>
       </c>
       <c r="U149" s="12"/>
@@ -9565,7 +9568,7 @@
       <c r="S150" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T150" s="6">
+      <c r="T150" s="11">
         <v>0</v>
       </c>
       <c r="U150" s="12"/>
@@ -9614,7 +9617,7 @@
       <c r="S151" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T151" s="6">
+      <c r="T151" s="11">
         <v>0</v>
       </c>
       <c r="U151" s="12"/>
@@ -9663,7 +9666,7 @@
       <c r="S152" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T152" s="6">
+      <c r="T152" s="11">
         <v>0</v>
       </c>
       <c r="U152" s="12"/>
@@ -9710,7 +9713,7 @@
       <c r="S153" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T153" s="6">
+      <c r="T153" s="11">
         <v>0</v>
       </c>
       <c r="U153" s="12"/>
@@ -9757,7 +9760,7 @@
       <c r="S154" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T154" s="6">
+      <c r="T154" s="11">
         <v>0</v>
       </c>
       <c r="U154" s="12"/>
@@ -9804,7 +9807,7 @@
       <c r="S155" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T155" s="6">
+      <c r="T155" s="11">
         <v>0</v>
       </c>
       <c r="U155" s="12"/>
@@ -9851,7 +9854,7 @@
       <c r="S156" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T156" s="6">
+      <c r="T156" s="11">
         <v>0</v>
       </c>
       <c r="U156" s="12"/>
@@ -9898,7 +9901,7 @@
       <c r="S157" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T157" s="6">
+      <c r="T157" s="11">
         <v>0</v>
       </c>
       <c r="U157" s="12"/>
@@ -9945,7 +9948,7 @@
       <c r="S158" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T158" s="6">
+      <c r="T158" s="11">
         <v>0</v>
       </c>
       <c r="U158" s="12"/>
@@ -9992,7 +9995,7 @@
       <c r="S159" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T159" s="6">
+      <c r="T159" s="11">
         <v>0</v>
       </c>
       <c r="U159" s="12"/>
@@ -10039,7 +10042,7 @@
       <c r="S160" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T160" s="6">
+      <c r="T160" s="11">
         <v>0</v>
       </c>
       <c r="U160" s="12"/>
@@ -10088,7 +10091,7 @@
       <c r="S161" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T161" s="6">
+      <c r="T161" s="11">
         <v>0</v>
       </c>
       <c r="U161" s="12"/>
@@ -10137,7 +10140,7 @@
       <c r="S162" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T162" s="6">
+      <c r="T162" s="11">
         <v>0</v>
       </c>
       <c r="U162" s="12"/>
@@ -10184,7 +10187,7 @@
       <c r="S163" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T163" s="6">
+      <c r="T163" s="11">
         <v>0</v>
       </c>
       <c r="U163" s="12"/>
@@ -10231,7 +10234,7 @@
       <c r="S164" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T164" s="6">
+      <c r="T164" s="11">
         <v>0</v>
       </c>
       <c r="U164" s="12"/>
@@ -10278,7 +10281,7 @@
       <c r="S165" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T165" s="6">
+      <c r="T165" s="11">
         <v>0</v>
       </c>
       <c r="U165" s="12"/>
@@ -10325,7 +10328,7 @@
       <c r="S166" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T166" s="6">
+      <c r="T166" s="11">
         <v>0</v>
       </c>
       <c r="U166" s="12"/>
@@ -10372,7 +10375,7 @@
       <c r="S167" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T167" s="6">
+      <c r="T167" s="11">
         <v>0</v>
       </c>
       <c r="U167" s="12"/>
@@ -10419,7 +10422,7 @@
       <c r="S168" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T168" s="6">
+      <c r="T168" s="11">
         <v>0</v>
       </c>
       <c r="U168" s="12"/>
@@ -10466,7 +10469,7 @@
       <c r="S169" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T169" s="6">
+      <c r="T169" s="11">
         <v>0</v>
       </c>
       <c r="U169" s="12"/>
@@ -10513,7 +10516,7 @@
       <c r="S170" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T170" s="6">
+      <c r="T170" s="11">
         <v>0</v>
       </c>
       <c r="U170" s="12"/>
@@ -10562,7 +10565,7 @@
       <c r="S171" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T171" s="6">
+      <c r="T171" s="11">
         <v>0</v>
       </c>
       <c r="U171" s="12"/>
@@ -10609,7 +10612,7 @@
       <c r="S172" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T172" s="6">
+      <c r="T172" s="11">
         <v>0</v>
       </c>
       <c r="U172" s="12"/>
@@ -10656,7 +10659,7 @@
       <c r="S173" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T173" s="6">
+      <c r="T173" s="11">
         <v>0</v>
       </c>
       <c r="U173" s="12"/>
@@ -10705,7 +10708,7 @@
       <c r="S174" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T174" s="6">
+      <c r="T174" s="11">
         <v>0</v>
       </c>
       <c r="U174" s="12"/>
@@ -10752,7 +10755,7 @@
       <c r="S175" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T175" s="6">
+      <c r="T175" s="11">
         <v>0</v>
       </c>
       <c r="U175" s="12"/>
@@ -10799,7 +10802,7 @@
       <c r="S176" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T176" s="6">
+      <c r="T176" s="11">
         <v>0</v>
       </c>
       <c r="U176" s="12"/>
@@ -10846,7 +10849,7 @@
       <c r="S177" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T177" s="6">
+      <c r="T177" s="11">
         <v>0</v>
       </c>
       <c r="U177" s="12"/>
@@ -10893,7 +10896,7 @@
       <c r="S178" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T178" s="6">
+      <c r="T178" s="11">
         <v>0</v>
       </c>
       <c r="U178" s="12"/>
@@ -10940,7 +10943,7 @@
       <c r="S179" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T179" s="6">
+      <c r="T179" s="11">
         <v>0</v>
       </c>
       <c r="U179" s="12"/>
@@ -10987,7 +10990,7 @@
       <c r="S180" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T180" s="6">
+      <c r="T180" s="11">
         <v>0</v>
       </c>
       <c r="U180" s="12"/>
@@ -11034,7 +11037,7 @@
       <c r="S181" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T181" s="6">
+      <c r="T181" s="11">
         <v>0</v>
       </c>
       <c r="U181" s="12"/>
@@ -11081,7 +11084,7 @@
       <c r="S182" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T182" s="6">
+      <c r="T182" s="11">
         <v>0</v>
       </c>
       <c r="U182" s="12"/>
@@ -11128,7 +11131,7 @@
       <c r="S183" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T183" s="6">
+      <c r="T183" s="11">
         <v>0</v>
       </c>
       <c r="U183" s="12"/>
@@ -11175,7 +11178,7 @@
       <c r="S184" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T184" s="6">
+      <c r="T184" s="11">
         <v>0</v>
       </c>
       <c r="U184" s="12"/>
@@ -11222,7 +11225,7 @@
       <c r="S185" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T185" s="6">
+      <c r="T185" s="11">
         <v>0</v>
       </c>
       <c r="U185" s="12"/>
@@ -11271,7 +11274,7 @@
       <c r="S186" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T186" s="6">
+      <c r="T186" s="11">
         <v>0</v>
       </c>
       <c r="U186" s="12"/>
@@ -11318,7 +11321,7 @@
       <c r="S187" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T187" s="6">
+      <c r="T187" s="11">
         <v>0</v>
       </c>
       <c r="U187" s="12"/>
@@ -11365,7 +11368,7 @@
       <c r="S188" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T188" s="6">
+      <c r="T188" s="11">
         <v>0</v>
       </c>
       <c r="U188" s="12"/>
@@ -11412,7 +11415,7 @@
       <c r="S189" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T189" s="6">
+      <c r="T189" s="11">
         <v>0</v>
       </c>
       <c r="U189" s="12"/>
@@ -11459,7 +11462,7 @@
       <c r="S190" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T190" s="6">
+      <c r="T190" s="11">
         <v>0</v>
       </c>
       <c r="U190" s="12"/>
@@ -11506,7 +11509,7 @@
       <c r="S191" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T191" s="6">
+      <c r="T191" s="11">
         <v>0</v>
       </c>
       <c r="U191" s="12"/>
@@ -11553,7 +11556,7 @@
       <c r="S192" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T192" s="6">
+      <c r="T192" s="11">
         <v>0</v>
       </c>
       <c r="U192" s="12"/>
@@ -11602,7 +11605,7 @@
       <c r="S193" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T193" s="6">
+      <c r="T193" s="11">
         <v>0</v>
       </c>
       <c r="U193" s="12"/>
@@ -11649,7 +11652,7 @@
       <c r="S194" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T194" s="6">
+      <c r="T194" s="11">
         <v>0</v>
       </c>
       <c r="U194" s="12"/>
@@ -11696,7 +11699,7 @@
       <c r="S195" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T195" s="6">
+      <c r="T195" s="11">
         <v>0</v>
       </c>
       <c r="U195" s="12"/>
@@ -11745,7 +11748,7 @@
       <c r="S196" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T196" s="6">
+      <c r="T196" s="11">
         <v>0</v>
       </c>
       <c r="U196" s="12"/>
@@ -11792,7 +11795,7 @@
       <c r="S197" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T197" s="6">
+      <c r="T197" s="11">
         <v>0</v>
       </c>
       <c r="U197" s="12"/>
@@ -11839,7 +11842,7 @@
       <c r="S198" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T198" s="6">
+      <c r="T198" s="11">
         <v>0</v>
       </c>
       <c r="U198" s="12"/>
@@ -11886,7 +11889,7 @@
       <c r="S199" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T199" s="6">
+      <c r="T199" s="11">
         <v>0</v>
       </c>
       <c r="U199" s="12"/>
@@ -11933,7 +11936,7 @@
       <c r="S200" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T200" s="6">
+      <c r="T200" s="11">
         <v>0</v>
       </c>
       <c r="U200" s="12"/>
@@ -11980,7 +11983,7 @@
       <c r="S201" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T201" s="6">
+      <c r="T201" s="11">
         <v>0</v>
       </c>
       <c r="U201" s="12"/>
@@ -12027,7 +12030,7 @@
       <c r="S202" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T202" s="6">
+      <c r="T202" s="11">
         <v>0</v>
       </c>
       <c r="U202" s="12"/>
@@ -12074,7 +12077,7 @@
       <c r="S203" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T203" s="6">
+      <c r="T203" s="11">
         <v>0</v>
       </c>
       <c r="U203" s="12"/>
@@ -12123,7 +12126,7 @@
       <c r="S204" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T204" s="6">
+      <c r="T204" s="11">
         <v>0</v>
       </c>
       <c r="U204" s="12"/>
@@ -12172,7 +12175,7 @@
       <c r="S205" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T205" s="6">
+      <c r="T205" s="11">
         <v>0</v>
       </c>
       <c r="U205" s="12"/>
@@ -12221,7 +12224,7 @@
       <c r="S206" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T206" s="6">
+      <c r="T206" s="11">
         <v>0</v>
       </c>
       <c r="U206" s="12"/>
@@ -12270,7 +12273,7 @@
       <c r="S207" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T207" s="6">
+      <c r="T207" s="11">
         <v>0</v>
       </c>
       <c r="U207" s="12"/>
@@ -12317,7 +12320,7 @@
       <c r="S208" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T208" s="6">
+      <c r="T208" s="11">
         <v>0</v>
       </c>
       <c r="U208" s="12"/>
@@ -12364,7 +12367,7 @@
       <c r="S209" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T209" s="6">
+      <c r="T209" s="11">
         <v>0</v>
       </c>
       <c r="U209" s="12"/>
@@ -12411,7 +12414,7 @@
       <c r="S210" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T210" s="6">
+      <c r="T210" s="11">
         <v>0</v>
       </c>
       <c r="U210" s="12"/>
@@ -12458,7 +12461,7 @@
       <c r="S211" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T211" s="6">
+      <c r="T211" s="11">
         <v>0</v>
       </c>
       <c r="U211" s="12"/>
@@ -12507,7 +12510,7 @@
       <c r="S212" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T212" s="6">
+      <c r="T212" s="11">
         <v>0</v>
       </c>
       <c r="U212" s="12"/>
@@ -12554,7 +12557,7 @@
       <c r="S213" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T213" s="6">
+      <c r="T213" s="11">
         <v>0</v>
       </c>
       <c r="U213" s="12"/>
@@ -12601,7 +12604,7 @@
       <c r="S214" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T214" s="6">
+      <c r="T214" s="11">
         <v>0</v>
       </c>
       <c r="U214" s="12"/>
@@ -12648,7 +12651,7 @@
       <c r="S215" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T215" s="6">
+      <c r="T215" s="11">
         <v>0</v>
       </c>
       <c r="U215" s="12"/>
@@ -12695,7 +12698,7 @@
       <c r="S216" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T216" s="6">
+      <c r="T216" s="11">
         <v>0</v>
       </c>
       <c r="U216" s="12"/>
@@ -12742,7 +12745,7 @@
       <c r="S217" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T217" s="6">
+      <c r="T217" s="11">
         <v>0</v>
       </c>
       <c r="U217" s="12"/>
@@ -12789,7 +12792,7 @@
       <c r="S218" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T218" s="6">
+      <c r="T218" s="11">
         <v>0</v>
       </c>
       <c r="U218" s="12"/>
@@ -12836,7 +12839,7 @@
       <c r="S219" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T219" s="6">
+      <c r="T219" s="11">
         <v>0</v>
       </c>
       <c r="U219" s="12"/>
@@ -12883,7 +12886,7 @@
       <c r="S220" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T220" s="6">
+      <c r="T220" s="11">
         <v>0</v>
       </c>
       <c r="U220" s="12"/>
@@ -12930,7 +12933,7 @@
       <c r="S221" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T221" s="6">
+      <c r="T221" s="11">
         <v>0</v>
       </c>
       <c r="U221" s="12"/>
@@ -12977,7 +12980,7 @@
       <c r="S222" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T222" s="6">
+      <c r="T222" s="11">
         <v>0</v>
       </c>
       <c r="U222" s="12"/>
@@ -13026,7 +13029,7 @@
       <c r="S223" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T223" s="6">
+      <c r="T223" s="11">
         <v>0</v>
       </c>
       <c r="U223" s="12"/>
@@ -13073,7 +13076,7 @@
       <c r="S224" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T224" s="6">
+      <c r="T224" s="11">
         <v>0</v>
       </c>
       <c r="U224" s="12"/>
@@ -13120,7 +13123,7 @@
       <c r="S225" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T225" s="6">
+      <c r="T225" s="11">
         <v>0</v>
       </c>
       <c r="U225" s="12"/>
@@ -13167,7 +13170,7 @@
       <c r="S226" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T226" s="6">
+      <c r="T226" s="11">
         <v>0</v>
       </c>
       <c r="U226" s="12"/>
@@ -13214,7 +13217,7 @@
       <c r="S227" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T227" s="6">
+      <c r="T227" s="11">
         <v>0</v>
       </c>
       <c r="U227" s="12"/>
@@ -13263,7 +13266,7 @@
       <c r="S228" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T228" s="6">
+      <c r="T228" s="11">
         <v>0</v>
       </c>
       <c r="U228" s="12"/>
@@ -13312,7 +13315,7 @@
       <c r="S229" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T229" s="6">
+      <c r="T229" s="11">
         <v>0</v>
       </c>
       <c r="U229" s="12"/>
@@ -13361,7 +13364,7 @@
       <c r="S230" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T230" s="6">
+      <c r="T230" s="11">
         <v>0</v>
       </c>
       <c r="U230" s="12"/>
@@ -13410,7 +13413,7 @@
       <c r="S231" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T231" s="6">
+      <c r="T231" s="11">
         <v>0</v>
       </c>
       <c r="U231" s="12"/>
@@ -13459,7 +13462,7 @@
       <c r="S232" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T232" s="6">
+      <c r="T232" s="11">
         <v>0</v>
       </c>
       <c r="U232" s="12"/>
@@ -13508,7 +13511,7 @@
       <c r="S233" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T233" s="6">
+      <c r="T233" s="11">
         <v>0</v>
       </c>
       <c r="U233" s="12"/>
@@ -13557,7 +13560,7 @@
       <c r="S234" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T234" s="6">
+      <c r="T234" s="11">
         <v>0</v>
       </c>
       <c r="U234" s="12"/>
@@ -13606,7 +13609,7 @@
       <c r="S235" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T235" s="6">
+      <c r="T235" s="11">
         <v>0</v>
       </c>
       <c r="U235" s="12"/>
@@ -13655,7 +13658,7 @@
       <c r="S236" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T236" s="6">
+      <c r="T236" s="11">
         <v>0</v>
       </c>
       <c r="U236" s="12"/>
@@ -13704,7 +13707,7 @@
       <c r="S237" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T237" s="6">
+      <c r="T237" s="11">
         <v>0</v>
       </c>
       <c r="U237" s="12"/>
@@ -13753,7 +13756,7 @@
       <c r="S238" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T238" s="6">
+      <c r="T238" s="11">
         <v>0</v>
       </c>
       <c r="U238" s="12"/>
@@ -13802,7 +13805,7 @@
       <c r="S239" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T239" s="6">
+      <c r="T239" s="11">
         <v>0</v>
       </c>
       <c r="U239" s="12"/>
@@ -13851,7 +13854,7 @@
       <c r="S240" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T240" s="6">
+      <c r="T240" s="11">
         <v>0</v>
       </c>
       <c r="U240" s="12"/>
@@ -13900,7 +13903,7 @@
       <c r="S241" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T241" s="6">
+      <c r="T241" s="11">
         <v>0</v>
       </c>
       <c r="U241" s="12"/>
@@ -13949,7 +13952,7 @@
       <c r="S242" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T242" s="6">
+      <c r="T242" s="11">
         <v>0</v>
       </c>
       <c r="U242" s="12"/>
@@ -13998,7 +14001,7 @@
       <c r="S243" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T243" s="6">
+      <c r="T243" s="11">
         <v>0</v>
       </c>
       <c r="U243" s="12"/>
@@ -14045,7 +14048,7 @@
       <c r="S244" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T244" s="6">
+      <c r="T244" s="11">
         <v>0</v>
       </c>
       <c r="U244" s="12"/>
@@ -14094,7 +14097,7 @@
       <c r="S245" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T245" s="6">
+      <c r="T245" s="11">
         <v>0</v>
       </c>
       <c r="U245" s="12"/>
@@ -14143,7 +14146,7 @@
       <c r="S246" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T246" s="6">
+      <c r="T246" s="11">
         <v>0</v>
       </c>
       <c r="U246" s="12"/>
@@ -14190,7 +14193,7 @@
       <c r="S247" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T247" s="6">
+      <c r="T247" s="11">
         <v>0</v>
       </c>
       <c r="U247" s="12"/>
@@ -14237,7 +14240,7 @@
       <c r="S248" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T248" s="6">
+      <c r="T248" s="11">
         <v>0</v>
       </c>
       <c r="U248" s="12"/>
@@ -14284,7 +14287,7 @@
       <c r="S249" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T249" s="6">
+      <c r="T249" s="11">
         <v>0</v>
       </c>
       <c r="U249" s="12"/>
@@ -14333,7 +14336,7 @@
       <c r="S250" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T250" s="6">
+      <c r="T250" s="11">
         <v>0</v>
       </c>
       <c r="U250" s="12"/>
@@ -14380,7 +14383,7 @@
       <c r="S251" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T251" s="6">
+      <c r="T251" s="11">
         <v>0</v>
       </c>
       <c r="U251" s="12"/>
@@ -14429,7 +14432,7 @@
       <c r="S252" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T252" s="6">
+      <c r="T252" s="11">
         <v>0</v>
       </c>
       <c r="U252" s="12"/>
@@ -14478,7 +14481,7 @@
       <c r="S253" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T253" s="6">
+      <c r="T253" s="11">
         <v>0</v>
       </c>
       <c r="U253" s="12"/>
@@ -14525,7 +14528,7 @@
       <c r="S254" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T254" s="6">
+      <c r="T254" s="11">
         <v>0</v>
       </c>
       <c r="U254" s="12"/>
@@ -14572,7 +14575,7 @@
       <c r="S255" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T255" s="6">
+      <c r="T255" s="11">
         <v>0</v>
       </c>
       <c r="U255" s="12"/>
@@ -14621,7 +14624,7 @@
       <c r="S256" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T256" s="6">
+      <c r="T256" s="11">
         <v>0</v>
       </c>
       <c r="U256" s="12"/>
@@ -14670,7 +14673,7 @@
       <c r="S257" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T257" s="6">
+      <c r="T257" s="11">
         <v>0</v>
       </c>
       <c r="U257" s="12"/>
@@ -14717,7 +14720,7 @@
       <c r="S258" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T258" s="6">
+      <c r="T258" s="11">
         <v>0</v>
       </c>
       <c r="U258" s="12"/>
@@ -14764,7 +14767,7 @@
       <c r="S259" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T259" s="6">
+      <c r="T259" s="11">
         <v>0</v>
       </c>
       <c r="U259" s="12"/>
@@ -14813,7 +14816,7 @@
       <c r="S260" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T260" s="6">
+      <c r="T260" s="11">
         <v>0</v>
       </c>
       <c r="U260" s="12"/>
@@ -14862,7 +14865,7 @@
       <c r="S261" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T261" s="6">
+      <c r="T261" s="11">
         <v>0</v>
       </c>
       <c r="U261" s="12"/>
@@ -14909,7 +14912,7 @@
       <c r="S262" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T262" s="6">
+      <c r="T262" s="11">
         <v>0</v>
       </c>
       <c r="U262" s="12"/>
@@ -14956,7 +14959,7 @@
       <c r="S263" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T263" s="6">
+      <c r="T263" s="11">
         <v>0</v>
       </c>
       <c r="U263" s="12"/>
@@ -15003,7 +15006,7 @@
       <c r="S264" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T264" s="6">
+      <c r="T264" s="11">
         <v>0</v>
       </c>
       <c r="U264" s="12"/>
@@ -15050,7 +15053,7 @@
       <c r="S265" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T265" s="6">
+      <c r="T265" s="11">
         <v>0</v>
       </c>
       <c r="U265" s="12"/>
@@ -15099,7 +15102,7 @@
       <c r="S266" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T266" s="6">
+      <c r="T266" s="11">
         <v>0</v>
       </c>
       <c r="U266" s="12"/>
@@ -15148,7 +15151,7 @@
       <c r="S267" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T267" s="6">
+      <c r="T267" s="11">
         <v>0</v>
       </c>
       <c r="U267" s="12"/>
@@ -15195,7 +15198,7 @@
       <c r="S268" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T268" s="6">
+      <c r="T268" s="11">
         <v>0</v>
       </c>
       <c r="U268" s="12"/>
@@ -15244,7 +15247,7 @@
       <c r="S269" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T269" s="6">
+      <c r="T269" s="11">
         <v>0</v>
       </c>
       <c r="U269" s="12"/>
@@ -15291,7 +15294,7 @@
       <c r="S270" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T270" s="6">
+      <c r="T270" s="11">
         <v>0</v>
       </c>
       <c r="U270" s="12"/>
@@ -15340,7 +15343,7 @@
       <c r="S271" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T271" s="6">
+      <c r="T271" s="11">
         <v>0</v>
       </c>
       <c r="U271" s="12"/>
@@ -15389,7 +15392,7 @@
       <c r="S272" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T272" s="6">
+      <c r="T272" s="11">
         <v>0</v>
       </c>
       <c r="U272" s="12"/>
@@ -15436,7 +15439,7 @@
       <c r="S273" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T273" s="6">
+      <c r="T273" s="11">
         <v>0</v>
       </c>
       <c r="U273" s="12"/>
@@ -15483,7 +15486,7 @@
       <c r="S274" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T274" s="6">
+      <c r="T274" s="11">
         <v>0</v>
       </c>
       <c r="U274" s="12"/>
@@ -15532,7 +15535,7 @@
       <c r="S275" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T275" s="6">
+      <c r="T275" s="11">
         <v>0</v>
       </c>
       <c r="U275" s="12"/>
@@ -15579,7 +15582,7 @@
       <c r="S276" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T276" s="6">
+      <c r="T276" s="11">
         <v>0</v>
       </c>
       <c r="U276" s="12"/>
@@ -15626,7 +15629,7 @@
       <c r="S277" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T277" s="6">
+      <c r="T277" s="11">
         <v>0</v>
       </c>
       <c r="U277" s="12"/>
@@ -15673,7 +15676,7 @@
       <c r="S278" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T278" s="6">
+      <c r="T278" s="11">
         <v>0</v>
       </c>
       <c r="U278" s="12"/>
@@ -15722,7 +15725,7 @@
       <c r="S279" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T279" s="6">
+      <c r="T279" s="11">
         <v>0</v>
       </c>
       <c r="U279" s="12"/>
@@ -15769,7 +15772,7 @@
       <c r="S280" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T280" s="6">
+      <c r="T280" s="11">
         <v>0</v>
       </c>
       <c r="U280" s="12"/>
@@ -15816,7 +15819,7 @@
       <c r="S281" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T281" s="6">
+      <c r="T281" s="11">
         <v>0</v>
       </c>
       <c r="U281" s="12"/>
@@ -15863,7 +15866,7 @@
       <c r="S282" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="T282" s="6">
+      <c r="T282" s="11">
         <v>0</v>
       </c>
       <c r="U282" s="12"/>
@@ -16786,7 +16789,7 @@
       <c r="S303" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="T303" s="6">
+      <c r="T303" s="11">
         <v>0</v>
       </c>
       <c r="U303" s="12"/>
@@ -16835,7 +16838,7 @@
       <c r="S304" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="T304" s="6">
+      <c r="T304" s="11">
         <v>0</v>
       </c>
       <c r="U304" s="12"/>
@@ -16882,7 +16885,7 @@
       <c r="S305" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="T305" s="6">
+      <c r="T305" s="11">
         <v>0</v>
       </c>
       <c r="U305" s="12"/>
@@ -16929,7 +16932,7 @@
       <c r="S306" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="T306" s="6">
+      <c r="T306" s="11">
         <v>0</v>
       </c>
       <c r="U306" s="12"/>
